--- a/frontend-cemos/public/assets/content/economia/1-economia-br/script/fc_consolidado.xlsx
+++ b/frontend-cemos/public/assets/content/economia/1-economia-br/script/fc_consolidado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F338"/>
+  <dimension ref="A1:F381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9901,6 +9901,1210 @@
         </is>
       </c>
     </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Qual é a tendência geral da mudança na atuação do Estado brasileiro descrita na introdução do capítulo?</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>A passagem de um Estado produtor para uma nova configuração que pretende ser a de um Estado regulador.</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr"/>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>Pág 1</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Como se caracterizava a intervenção governamental na fase colonial da economia brasileira?</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Era marcada por forte presença, exigindo autorização régia para atividades ou sendo administrada diretamente pela metrópole.</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr"/>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>Pág 1</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Por que a República Velha não pode ser considerada um período de total ausência de intervenção estatal?</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Devido às fortes políticas de intervenção, como a política de defesa do café iniciada em 1906.</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr"/>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>Pág 2</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Como eram providos os serviços públicos (ferrovias, energia) durante a Primeira República?</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Eram providos majoritariamente por empresas privadas sob concessões públicas, muitas vezes com garantia de juros.</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr"/>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>Pág 2</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>O que era a "garantia de juros" concedida pelo governo na República Velha?</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Era um mecanismo que assegurava um lucro mínimo para investimentos privados (como ferrovias), cobrindo eventuais prejuízos.</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr"/>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>Pág 2</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Qual papel o Banco do Brasil passou a desempenhar de forma crescente na década de 1920?</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Tornou-se o principal banco nacional e autoridade monetária, controlando o câmbio e o redesconto.</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr"/>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>Pág 3</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Qual era o objetivo geral da intervenção estatal na economia durante a fase agroexportadora?</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Proteger a economia nacional ("defesa macroeconômica") diante de crises externas e depressões.</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr"/>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>Pág 3</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Como a política de crédito e tarifas foi utilizada na fase agroexportadora em relação à indústria?</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Foi utilizada para dar alguma proteção e fomento à indústria, visando diminuir a dependência de produtos importados.</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr"/>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>Pág 3</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>A partir dos anos 1930, qual passou a ser o foco central da intervenção do Estado brasileiro?</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Alterar o modelo de desenvolvimento, superando a fase agroexportadora e apoiando decididamente a industrialização.</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr"/>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>Pág 4</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>O que caracteriza o papel do "Estado Condutor" no processo de industrialização?</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>O uso da política econômica (cambial, tarifária, creditícia) submetida às metas de industrialização.</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr"/>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>Pág 4</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>O que define a atuação do "Estado Regulamentador" em relação ao conflito capital-trabalho?</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>A criação de instituições (como a CLT e a Justiça do Trabalho) para mediar conflitos e regular o mercado de trabalho.</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr"/>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>Pág 4</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>O que caracteriza o "Estado Produtor" consolidado após 1930?</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>A criação de empresas estatais para prover serviços públicos e produzir bens intermediários (siderurgia, petróleo, mineração).</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr"/>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>Pág 5</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Quais são exemplos de empresas estatais criadas no âmbito do Estado Produtor de insumos intermediários?</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>CSN, Vale do Rio Doce, Usiminas, Petrobras e Fábrica Nacional de Motores (FNM).</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr"/>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>Pág 5</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Qual foi o papel do BNDE (atual BNDES) na função de "Estado Financiador"?</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Tornou-se a principal instituição de crédito de longo prazo, canalizando recursos para setores de interesse do governo.</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr"/>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>Pág 5</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Como a "questão tarifária" contribuiu para a estatização dos serviços públicos?</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>A necessidade de manter tarifas baixas para a indústria inviabilizou o lucro privado, levando o Estado a assumir os serviços.</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr"/>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>Pág 6</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Por que o capital privado não investiu nos setores de bens intermediários (como siderurgia) no Brasil?</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Devido ao alto volume de capital necessário, longo prazo de maturação e baixa liquidez do mercado de capitais após 1929.</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr"/>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>Pág 6</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Como a crise de 1929 afetou a forma de financiamento das empresas no Brasil?</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Retraiu o mercado de capitais, forçando a dependência de empréstimos bancários de curto prazo, inadequados para infraestrutura.</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr"/>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>Pág 6</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Por que apenas os governos conseguiam financiar infraestrutura no pós-guerra?</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Porque podiam oferecer garantias para empréstimos internacionais e acessavam poupança compulsória barata.</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr"/>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>Pág 7</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>O que são "bens públicos" do ponto de vista econômico?</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Bens caracterizados pela não rivalidade (uso por um não impede outro) e não excludência (não se pode impedir o uso).</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr"/>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>Pág 7, 8</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Qual a justificativa econômica tradicional para a intervenção do Estado em monopólios naturais?</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Evitar a perda de eficiência (preços altos e baixa quantidade) que ocorreria em um monopólio privado sem regulação.</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr"/>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>Pág 8</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Qual a diferença entre o "modelo norte-americano" e o "modelo europeu" de serviços públicos?</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>O modelo americano baseia-se em empresas privadas reguladas; o europeu, em empresas estatais (predominante no pós-guerra).</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr"/>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>Pág 8</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Qual foi a postura dos governos militares em relação ao papel do Estado na economia?</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Mantiveram e dinamizaram a atuação do Estado como produtor, financiador e condutor, ampliando sua presença.</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr"/>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>Pág 9</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Como o Estado ampliou sua capacidade de financiamento durante o regime militar?</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Através de reformas tributária e financeira, e criando fundos compulsórios como FGTS, PIS-Pasep e o sistema BNH.</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr"/>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>Pág 9</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>O que foi o CIP (Conselho Interministerial de Preços) no período militar?</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Um órgão de intervenção estatal para controle de custos e preços na economia.</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr"/>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>Pág 9</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>O que caracteriza as reformas do Estado nas últimas décadas (anos 90 em diante)?</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>O desmonte da estrutura varguista/desenvolvimentista, reduzindo os papéis de condutor e produtor (privatizações).</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr"/>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>Pág 10</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>O que ocorreu com órgãos reguladores setoriais como o IAA e o IBC nas reformas recentes?</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Foram extintos como parte do processo de desregulamentação e redução da intervenção estatal.</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr"/>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>Pág 10</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Quais foram as duas grandes linhas de ação nas reformas do Estado motivadas pela crise fiscal?</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Racionalização/controle financeiro do setor público e redefinição do papel do Estado (privatização).</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr"/>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>Pág 11</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Qual foi a função da criação da Secretaria do Tesouro Nacional (STN) e do fim da Conta Movimento?</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Separar as atribuições entre autoridade monetária e fiscal e melhorar o controle da dívida e do orçamento.</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr"/>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>Pág 11</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>O que a Lei de Responsabilidade Fiscal buscou estabelecer?</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Regras rígidas e limites para o endividamento e despesas com pessoal nas diferentes esferas de governo.</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr"/>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>Pág 11</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Quais são as principais razões alegadas para a privatização das estatais?</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Ineficiência das empresas, incapacidade de investimento do Estado, necessidade de receita para a dívida e mudanças tecnológicas.</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr"/>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>Pág 12</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Quais eram os problemas operacionais apontados nas empresas estatais?</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Baixa eficiência, deterioração física dos ativos, falta de manutenção e desbalanceamento entre oferta e demanda.</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr"/>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>Pág 13</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Como a questão política afetava a gestão das estatais?</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>A ingerência política levava a decisões ineficientes, excesso de pessoal e falta de responsabilidade gerencial.</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr"/>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>Pág 13</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Como o uso das estatais para fins macroeconômicos (controle da inflação) as prejudicou?</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>O controle de tarifas destruiu a capacidade de autofinanciamento e investimento de longo prazo das empresas.</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr"/>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>Pág 14</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Por que os recursos governamentais para infraestrutura escassearam a partir dos anos 80?</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Devido à concorrência com gastos sociais (previdência/saúde) e ao peso do serviço da dívida pública.</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr"/>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>Pág 14</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Como a mudança tecnológica influenciou a privatização de serviços públicos?</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Permitiu a quebra de monopólios naturais e a introdução de concorrência em setores antes exclusivos do Estado.</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr"/>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>Pág 14</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>O que foi a "fase de reprivatização" nos anos 1980?</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>A venda de empresas que haviam sido estatizadas por falência (saneamento financeiro), não estatais originais.</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr"/>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>Pág 15</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Quais setores foram o foco da privatização durante o governo Collor (1991-1992)?</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Siderurgia, petroquímica e fertilizantes.</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr"/>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>Pág 15</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>O que foram as "moedas podres" utilizadas nos leilões de privatização?</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Títulos da dívida pública com baixo valor de mercado aceitos pelo valor de face para pagamento das empresas.</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr"/>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>Pág 15</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Qual setor liderou em valor arrecadado no processo de privatização brasileiro?</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>O setor de telecomunicações.</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr"/>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>Pág 16, 17</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Além das telecomunicações, quais setores tiveram grande participação no PND?</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Siderurgia, mineração e energia elétrica.</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr"/>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>Pág 18</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>A privatização resolveu o problema da dívida pública brasileira no curto prazo?</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Não reduziu o estoque da dívida de forma definitiva, mas as receitas ajudaram a financiar o déficit público.</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr"/>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>Pág 19</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Qual foi o impacto da privatização no setor externo (Balanço de Pagamentos)?</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>A entrada de capital estrangeiro para compra das empresas ajudou a financiar o déficit em transações correntes.</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr"/>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>Pág 19</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Qual é a principal dúvida remanescente sobre a eficiência microeconômica pós-privatização?</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>A incerteza quanto à qualidade e eficácia da regulação dos serviços públicos privatizados.</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr"/>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>Pág 19</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>Cap.19 - Alterações na Presença do Estado no Desenvolvimento Brasileiro</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
